--- a/shuadan.xlsx
+++ b/shuadan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14640" activeTab="1"/>
+    <workbookView windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="小颜" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>时间</t>
   </si>
@@ -53,6 +53,9 @@
     <t>王琪琪</t>
   </si>
   <si>
+    <t>朱跃飞</t>
+  </si>
+  <si>
     <t>张稼嵘</t>
   </si>
   <si>
@@ -80,7 +83,7 @@
     <t>step慧敏</t>
   </si>
   <si>
-    <t>6217231208006780000</t>
+    <t>6217231208006780898</t>
   </si>
   <si>
     <t>浙江金华</t>
@@ -92,7 +95,7 @@
     <t>桔花飞舞梗断落</t>
   </si>
   <si>
-    <t>6217231208010640000</t>
+    <t>6217231208010641805</t>
   </si>
   <si>
     <t>邹婷</t>
@@ -113,13 +116,133 @@
     <t>拂晓辅导</t>
   </si>
   <si>
-    <t>6217001430003530000</t>
+    <t>6217001430003531748</t>
+  </si>
+  <si>
+    <t>张冯烨</t>
+  </si>
+  <si>
+    <t>since19931228</t>
+  </si>
+  <si>
+    <t>271324995689806536</t>
+  </si>
+  <si>
+    <t>王秋斌</t>
+  </si>
+  <si>
+    <t>蝎子707</t>
+  </si>
+  <si>
+    <t>6228410344546709079</t>
+  </si>
+  <si>
+    <t>王淑兰</t>
+  </si>
+  <si>
+    <t>只有自己随心</t>
+  </si>
+  <si>
+    <t>6230910499009411687</t>
+  </si>
+  <si>
+    <t>李丹</t>
+  </si>
+  <si>
+    <t>淘淘好东西437</t>
+  </si>
+  <si>
+    <t>6228480348602961776</t>
+  </si>
+  <si>
+    <t>倪丽清</t>
+  </si>
+  <si>
+    <t>niliqing_200888</t>
+  </si>
+  <si>
+    <t>6222603130001793637</t>
+  </si>
+  <si>
+    <t>张国伟</t>
+  </si>
+  <si>
+    <t>国国起伏</t>
+  </si>
+  <si>
+    <t>6212261204004027550</t>
+  </si>
+  <si>
+    <t>金雨萍</t>
+  </si>
+  <si>
+    <t>金雨萍Jeanne</t>
+  </si>
+  <si>
+    <t>6228480349356447673</t>
+  </si>
+  <si>
+    <t>沈榕</t>
+  </si>
+  <si>
+    <t>公元前我们太小530</t>
+  </si>
+  <si>
+    <t>6212261202018490418</t>
+  </si>
+  <si>
+    <t>徐黎</t>
+  </si>
+  <si>
+    <t>嘿boy3300</t>
+  </si>
+  <si>
+    <t>6230910499006212039</t>
+  </si>
+  <si>
+    <t>丁庆春</t>
+  </si>
+  <si>
+    <t>时光不老我们不散zydqc</t>
+  </si>
+  <si>
+    <t>6214855493179119</t>
+  </si>
+  <si>
+    <t>朱跃杰</t>
+  </si>
+  <si>
+    <t>棕楠3334</t>
+  </si>
+  <si>
+    <t>6228480342442371312 </t>
   </si>
   <si>
     <t>王璟璟</t>
   </si>
   <si>
     <t>姚月婷</t>
+  </si>
+  <si>
+    <t>百万富翁wqq</t>
+  </si>
+  <si>
+    <t>6228480323005888116</t>
+  </si>
+  <si>
+    <t>浅浅s阳光</t>
+  </si>
+  <si>
+    <t>621226 1202016541782</t>
+  </si>
+  <si>
+    <t>浙江杭州</t>
+  </si>
+  <si>
+    <t>叮咚叮咚叮当</t>
+  </si>
+  <si>
+    <t>6212261202003096162</t>
   </si>
 </sst>
 </file>
@@ -128,10 +251,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,7 +273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,31 +301,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,27 +339,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,15 +363,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +403,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,7 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +467,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +521,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,25 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,43 +587,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,48 +609,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -496,11 +619,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,15 +654,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,32 +699,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,94 +721,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,53 +820,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,13 +885,19 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
@@ -9376,7 +9505,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
-        <v>43405</v>
+        <v>43403</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -9385,7 +9514,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -9394,7 +9523,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
-        <v>43407</v>
+        <v>43406</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -9402,8 +9531,8 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>43411</v>
+      <c r="A12" s="3">
+        <v>43407</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -9421,7 +9550,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
-        <v>43414</v>
+        <v>43411</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -9438,63 +9567,55 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3">
-        <v>43416</v>
+      <c r="A16" s="1">
+        <v>43414</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>43422</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>43416</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43422</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>43423</v>
-      </c>
-      <c r="B19" t="s">
+        <v>43422</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9502,53 +9623,218 @@
         <v>43423</v>
       </c>
       <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>43423</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="5"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="5"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43424</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="5"/>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43425</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="5"/>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43426</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="5"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>43426</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="5"/>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>43427</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="5"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>43427</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="5"/>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="5"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>43428</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="5"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>43429</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="5"/>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>43430</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="5"/>
@@ -9610,6 +9896,9 @@
     <row r="52" spans="4:4">
       <c r="D52" s="5"/>
     </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9619,10 +9908,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
@@ -9656,7 +9945,7 @@
         <v>43400</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:2">
@@ -9672,7 +9961,7 @@
         <v>43406</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9704,7 +9993,7 @@
         <v>43411</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9712,16 +10001,67 @@
         <v>43422</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>43428</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>43428</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>43411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/shuadan.xlsx
+++ b/shuadan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14640"/>
+    <workbookView windowHeight="14660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="小颜" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>时间</t>
   </si>
@@ -215,7 +215,19 @@
     <t>棕楠3334</t>
   </si>
   <si>
-    <t>6228480342442371312 </t>
+    <t>6228480342442371312</t>
+  </si>
+  <si>
+    <t>成群</t>
+  </si>
+  <si>
+    <t>qunsos</t>
+  </si>
+  <si>
+    <t>6222603130002986545</t>
+  </si>
+  <si>
+    <t>店铺</t>
   </si>
   <si>
     <t>王璟璟</t>
@@ -244,15 +256,18 @@
   <si>
     <t>6212261202003096162</t>
   </si>
+  <si>
+    <t>皮先努C店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -273,21 +288,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +326,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +340,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,7 +364,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,31 +372,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,6 +387,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,15 +408,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,13 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,67 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,31 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,13 +542,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,32 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +647,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -688,31 +702,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,152 +736,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,16 +900,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
@@ -1219,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
@@ -9575,27 +9584,35 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3">
-        <v>43416</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="5"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>43422</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43422</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -9603,19 +9620,19 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>43422</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>43423</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9623,13 +9640,13 @@
         <v>43423</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
@@ -9637,16 +9654,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>43423</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
+        <v>43424</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
@@ -9656,14 +9673,14 @@
       <c r="A22" s="1">
         <v>43424</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
+      <c r="B22" t="s">
+        <v>37</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
@@ -9671,16 +9688,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
@@ -9688,16 +9705,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>43425</v>
+        <v>43426</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -9707,14 +9724,14 @@
       <c r="A25" s="1">
         <v>43426</v>
       </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>45</v>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
@@ -9722,16 +9739,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>43426</v>
+        <v>43427</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -9741,14 +9758,14 @@
       <c r="A27" s="1">
         <v>43427</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>51</v>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>30</v>
@@ -9756,16 +9773,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>43427</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>54</v>
+        <v>43428</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E28" t="s">
         <v>30</v>
@@ -9775,62 +9792,62 @@
       <c r="A29" s="1">
         <v>43428</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>57</v>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>43428</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" t="s">
+        <v>43429</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>43430</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>43429</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>43430</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>64</v>
+        <v>43431</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -9896,9 +9913,6 @@
     <row r="52" spans="4:4">
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -9908,22 +9922,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.8583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.9083333333333" customWidth="1"/>
     <col min="3" max="3" width="21.2416666666667" customWidth="1"/>
     <col min="4" max="4" width="60.6916666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.9666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9938,6 +9953,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:2">
@@ -9945,7 +9963,7 @@
         <v>43400</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:2">
@@ -9993,7 +10011,7 @@
         <v>43411</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10021,10 +10039,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -10038,30 +10056,50 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>43411</v>
+        <v>43428</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>75</v>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>43431</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/shuadan.xlsx
+++ b/shuadan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14660" activeTab="1"/>
+    <workbookView windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="小颜" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>时间</t>
   </si>
@@ -227,6 +227,18 @@
     <t>6222603130002986545</t>
   </si>
   <si>
+    <t>周英杰</t>
+  </si>
+  <si>
+    <t>萌萌哒旦旦</t>
+  </si>
+  <si>
+    <t>6216701202000137810</t>
+  </si>
+  <si>
+    <t>浙江杭州</t>
+  </si>
+  <si>
     <t>店铺</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>621226 1202016541782</t>
   </si>
   <si>
-    <t>浙江杭州</t>
-  </si>
-  <si>
     <t>叮咚叮咚叮当</t>
   </si>
   <si>
@@ -265,11 +274,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -295,7 +304,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,64 +348,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,24 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,7 +388,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -440,7 +449,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,67 +539,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,19 +569,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,49 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,19 +611,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,11 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +672,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,36 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -731,157 +731,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,6 +910,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
@@ -1230,8 +1242,8 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
@@ -9611,7 +9623,7 @@
       <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
@@ -9662,7 +9674,7 @@
       <c r="C21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
@@ -9679,7 +9691,7 @@
       <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E22" t="s">
@@ -9730,7 +9742,7 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E25" t="s">
@@ -9764,7 +9776,7 @@
       <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E27" t="s">
@@ -9781,7 +9793,7 @@
       <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
@@ -9798,7 +9810,7 @@
       <c r="C29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E29" t="s">
@@ -9829,7 +9841,7 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E31" t="s">
@@ -9846,15 +9858,29 @@
       <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="5"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>43433</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="5"/>
@@ -9922,10 +9948,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="5"/>
@@ -9955,7 +9981,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:2">
@@ -9963,7 +9989,7 @@
         <v>43400</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:2">
@@ -10011,7 +10037,7 @@
         <v>43411</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10039,10 +10065,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
@@ -10056,13 +10082,13 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10073,13 +10099,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10099,8 +10125,28 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>43433</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
